--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68642ACD-A9A9-C242-9008-E3F80E6ECE86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4C267-28AD-1744-8285-0CBF2BD638A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,7 +639,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD27"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F4C267-28AD-1744-8285-0CBF2BD638A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F73B57-D06B-C043-88AE-1FBFDB1D90EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="74">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>ACN_03</t>
+  </si>
+  <si>
+    <t>STUDY_USE</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -710,6 +713,9 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
@@ -1612,9 +1618,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,27 +1830,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1866,9 +1863,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F73B57-D06B-C043-88AE-1FBFDB1D90EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1D1DD-B7C3-8748-9581-BC5EFE7FF5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$T$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -639,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -659,7 +662,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,8 +720,11 @@
       <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -770,8 +776,11 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
+      <c r="T2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -823,8 +832,11 @@
       <c r="Q3" t="s">
         <v>19</v>
       </c>
+      <c r="T3" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -876,8 +888,11 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -929,8 +944,11 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -982,8 +1000,11 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1035,8 +1056,11 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
+      <c r="T7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1090,13 +1114,11 @@
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
+      <c r="T8" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1201,8 +1226,11 @@
       <c r="Q10" t="s">
         <v>21</v>
       </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1254,8 +1282,11 @@
       <c r="Q11" t="s">
         <v>21</v>
       </c>
+      <c r="T11" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1307,8 +1338,11 @@
       <c r="Q12" t="s">
         <v>21</v>
       </c>
+      <c r="T12" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1360,8 +1394,11 @@
       <c r="Q13" t="s">
         <v>21</v>
       </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1413,8 +1450,11 @@
       <c r="Q14" t="s">
         <v>21</v>
       </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1468,13 +1508,11 @@
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
+      <c r="T15" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1526,8 +1564,11 @@
       <c r="Q16" t="s">
         <v>21</v>
       </c>
+      <c r="T16" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -1581,11 +1622,9 @@
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
+      <c r="T17" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1627,6 +1666,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -1829,12 +1874,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
@@ -1844,6 +1883,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1860,21 +1916,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
+++ b/spec/fixtures/files/models/import/sponsor_term_format_one/import_input_6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/import/sponsor_term_format_one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC1D1DD-B7C3-8748-9581-BC5EFE7FF5B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0444565-FF80-194D-8A28-5AD0E25B3255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38700" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$T$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Harmonized_Terminology_Listing!$A$1:$R$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -252,12 +252,6 @@
   </si>
   <si>
     <t>ACN_03</t>
-  </si>
-  <si>
-    <t>STUDY_USE</t>
-  </si>
-  <si>
-    <t>GLOBAL_USE</t>
   </si>
 </sst>
 </file>
@@ -642,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,7 +656,7 @@
     <col min="13" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,14 +711,8 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -776,11 +764,8 @@
       <c r="Q2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -832,11 +817,8 @@
       <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -888,11 +870,8 @@
       <c r="Q4" t="s">
         <v>19</v>
       </c>
-      <c r="T4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="5" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -944,11 +923,8 @@
       <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1000,11 +976,8 @@
       <c r="Q6" t="s">
         <v>19</v>
       </c>
-      <c r="T6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="7" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1056,11 +1029,8 @@
       <c r="Q7" t="s">
         <v>19</v>
       </c>
-      <c r="T7" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -1113,12 +1083,8 @@
         <v>19</v>
       </c>
       <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="9" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1170,11 +1136,8 @@
       <c r="Q9" t="s">
         <v>19</v>
       </c>
-      <c r="T9" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="10" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1226,11 +1189,8 @@
       <c r="Q10" t="s">
         <v>21</v>
       </c>
-      <c r="T10" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="11" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -1282,11 +1242,8 @@
       <c r="Q11" t="s">
         <v>21</v>
       </c>
-      <c r="T11" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="12" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1338,11 +1295,8 @@
       <c r="Q12" t="s">
         <v>21</v>
       </c>
-      <c r="T12" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="13" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1394,11 +1348,8 @@
       <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="T13" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="14" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1450,11 +1401,8 @@
       <c r="Q14" t="s">
         <v>21</v>
       </c>
-      <c r="T14" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="15" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1507,12 +1455,8 @@
         <v>21</v>
       </c>
       <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="16" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -1564,11 +1508,8 @@
       <c r="Q16" t="s">
         <v>21</v>
       </c>
-      <c r="T16" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="17" spans="1:20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>71</v>
       </c>
@@ -1621,10 +1562,6 @@
         <v>21</v>
       </c>
       <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,21 +1594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004A4239810D68DF4DBC5742E8CE0E70CC" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d9faefea44d093d77229bcd676be9ed">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c" xmlns:ns3="e6598ab0-0177-45e1-aecb-2d4ca2ef9861" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9f49db91e50174bfb23a493872cc93af" ns2:_="" ns3:_="">
     <xsd:import namespace="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
@@ -1874,10 +1796,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
+    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1900,20 +1848,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C749E77-D3D4-46B5-B99F-5270C56DD89B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c3ce42d-62cf-4236-8e15-8f2cb94ab72c"/>
-    <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>